--- a/REGULAR/TOLENTINO, ABRAHAM N.xlsx
+++ b/REGULAR/TOLENTINO, ABRAHAM N.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230AA177-AE26-43BF-9E04-164F8E5F0349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21780623-08B3-4268-B2C6-D21C3A9CFF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -29,20 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -237,6 +229,24 @@
   </si>
   <si>
     <t>1 - Married (and not separated)</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>1/24 -2/3 FRANCE</t>
+  </si>
+  <si>
+    <t>OFFICIAL 2/18 -24 ISRAEL</t>
+  </si>
+  <si>
+    <t>OFFICIAL BALI INDONESIA</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>OFFICIAL BANGKOK, THAILAND</t>
   </si>
 </sst>
 </file>
@@ -480,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,9 +501,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -548,7 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -560,10 +567,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -572,13 +579,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -625,6 +629,12 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,9 +667,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,7 +938,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -939,7 +946,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1268,23 +1275,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A4" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A14" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="33" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
@@ -1292,105 +1299,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="51"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="56" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="56"/>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="51"/>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4"/>
       <c r="F3" s="57">
         <v>44743</v>
       </c>
       <c r="G3" s="52"/>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="27"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="51"/>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4"/>
       <c r="F4" s="52" t="s">
         <v>63</v>
       </c>
       <c r="G4" s="52"/>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="27"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="28" t="s">
+      <c r="A5" s="16"/>
+      <c r="H5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
+      <c r="I5" s="27"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="20"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
@@ -1403,13 +1401,13 @@
       <c r="H7" s="50"/>
       <c r="I7" s="50"/>
       <c r="J7" s="50"/>
-      <c r="K7" s="15"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1436,2123 +1434,2373 @@
       <c r="J8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="14">
+      <c r="C9" s="13"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>5</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="21"/>
+        <v>8.75</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+      <c r="A10" s="40">
         <v>44743</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>1.25</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="39">
         <v>2</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="14">
+      <c r="F10" s="20"/>
+      <c r="G10" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="36" t="s">
+      <c r="H10" s="39"/>
+      <c r="I10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="11"/>
+      <c r="K10" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="41" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="21" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="41" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="21" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="41" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="21" t="s">
+      <c r="E13" s="34"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+      <c r="A14" s="40">
         <v>44774</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>1.25</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="14">
+      <c r="E14" s="9"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="21" t="s">
+      <c r="H14" s="39"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="42">
+      <c r="A15" s="40">
         <v>44805</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>1.25</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="14">
+      <c r="E15" s="9"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="21" t="s">
+      <c r="H15" s="39"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="41">
+      <c r="C16" s="13"/>
+      <c r="D16" s="39">
         <v>3</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="21">
+        <v>1.75</v>
+      </c>
+      <c r="F16" s="20">
         <v>4</v>
       </c>
-      <c r="G16" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="10">
+      <c r="G16" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>5</v>
-      </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="61" t="s">
+        <v>8.75</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="48" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="42">
+      <c r="A17" s="40">
         <v>44835</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>1.25</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="14">
+      <c r="E17" s="9"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="21" t="s">
+      <c r="H17" s="39"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="20" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="42">
+      <c r="A18" s="40">
         <v>44866</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="21">
+      <c r="C18" s="13"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="20">
         <v>6</v>
       </c>
-      <c r="G18" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="21" t="s">
+      <c r="G18" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="21">
+      <c r="C19" s="13"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="20">
         <v>4</v>
       </c>
-      <c r="G19" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="21" t="s">
+      <c r="G19" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="16"/>
+      <c r="A20" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="42">
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="43"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H20" s="43"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="10"/>
+      <c r="A21" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H21" s="43"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="21"/>
+      <c r="K21" s="15"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="21"/>
+      <c r="A22" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D22" s="39">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="20">
+        <v>7</v>
+      </c>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="21"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="21"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="21"/>
+      <c r="A25" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="21"/>
+      <c r="A26" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="21"/>
+      <c r="A27" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="21"/>
+      <c r="A28" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="21"/>
+      <c r="A29" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="21"/>
+      <c r="A30" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="21"/>
+      <c r="A31" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H31" s="39"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="21"/>
+      <c r="A32" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="21"/>
+      <c r="A33" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="21"/>
+      <c r="A34" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H34" s="39"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="21"/>
+      <c r="A35" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H36" s="41"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="21"/>
+      <c r="A36" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H36" s="39"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="21"/>
+      <c r="A37" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H37" s="39"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="21"/>
+      <c r="A38" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="21"/>
+      <c r="A39" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="21"/>
+      <c r="A40" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="21"/>
+      <c r="A41" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H41" s="39"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H42" s="41"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="21"/>
+      <c r="A42" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H42" s="39"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H43" s="41"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="21"/>
+      <c r="A43" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H43" s="39"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="42"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="21"/>
+      <c r="A44" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H44" s="39"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="21"/>
+      <c r="A45" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="21"/>
+      <c r="A46" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H46" s="39"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="21"/>
+      <c r="A47" s="40">
+        <v>45627</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H47" s="39"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="42"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="21"/>
+      <c r="A48" s="40">
+        <v>45658</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H48" s="39"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="42"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="21"/>
+      <c r="A49" s="40">
+        <v>45689</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H49" s="39"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="42"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="21"/>
+      <c r="A50" s="40">
+        <v>45717</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="42"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="21"/>
+      <c r="A51" s="40">
+        <v>45748</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H51" s="39"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="42"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="21"/>
+      <c r="A52" s="40">
+        <v>45778</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H52" s="39"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="42"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H53" s="41"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="21"/>
+      <c r="A53" s="40">
+        <v>45809</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H53" s="39"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="42"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H54" s="41"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="21"/>
+      <c r="A54" s="40">
+        <v>45839</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H54" s="39"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="21"/>
+      <c r="A55" s="40">
+        <v>45870</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H55" s="39"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="42"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H56" s="41"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="21"/>
+      <c r="A56" s="40">
+        <v>45901</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H56" s="39"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H57" s="41"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="21"/>
+      <c r="A57" s="40">
+        <v>45931</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H57" s="39"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="42"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H58" s="41"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="21"/>
+      <c r="A58" s="40">
+        <v>45962</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H58" s="39"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="42"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H59" s="41"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="21"/>
+      <c r="A59" s="40">
+        <v>45992</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H59" s="39"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="42"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H60" s="41"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="21"/>
+      <c r="A60" s="40">
+        <v>46023</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H60" s="39"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="42"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H61" s="41"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="21"/>
+      <c r="A61" s="40">
+        <v>46054</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H61" s="39"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="42"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H62" s="41"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="21"/>
+      <c r="A62" s="40">
+        <v>46082</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H62" s="39"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="42"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H63" s="41"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="21"/>
+      <c r="A63" s="40">
+        <v>46113</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H63" s="39"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="42"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H64" s="41"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="21"/>
+      <c r="A64" s="40">
+        <v>46143</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H64" s="39"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="42"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H65" s="41"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="21"/>
+      <c r="A65" s="40">
+        <v>46174</v>
+      </c>
+      <c r="B65" s="20"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H65" s="39"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="42"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H66" s="41"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="21"/>
+      <c r="A66" s="40">
+        <v>46204</v>
+      </c>
+      <c r="B66" s="20"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H66" s="39"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="42"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H67" s="41"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="21"/>
+      <c r="A67" s="40">
+        <v>46235</v>
+      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H67" s="39"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="42"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H68" s="41"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="21"/>
+      <c r="A68" s="40">
+        <v>46266</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H68" s="39"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="42"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H69" s="41"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="21"/>
+      <c r="A69" s="40">
+        <v>46296</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H69" s="39"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="42"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H70" s="41"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="21"/>
+      <c r="A70" s="40">
+        <v>46327</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H70" s="39"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="42"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H71" s="41"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="21"/>
+      <c r="A71" s="40">
+        <v>46357</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H71" s="39"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="42"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H72" s="41"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="21"/>
+      <c r="A72" s="40">
+        <v>46388</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H72" s="39"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="42"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H73" s="41"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="21"/>
+      <c r="A73" s="40">
+        <v>46419</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H73" s="39"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="42"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H74" s="41"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="21"/>
+      <c r="A74" s="40">
+        <v>46447</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H74" s="39"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="42"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H75" s="41"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="21"/>
+      <c r="A75" s="40">
+        <v>46478</v>
+      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H75" s="39"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="42"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H76" s="41"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="21"/>
+      <c r="A76" s="40">
+        <v>46508</v>
+      </c>
+      <c r="B76" s="20"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H76" s="39"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="42"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H77" s="41"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="21"/>
+      <c r="A77" s="40">
+        <v>46539</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H77" s="39"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="42"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H78" s="41"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="21"/>
+      <c r="A78" s="40">
+        <v>46569</v>
+      </c>
+      <c r="B78" s="20"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H78" s="39"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="42"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H79" s="41"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="21"/>
+      <c r="A79" s="40">
+        <v>46600</v>
+      </c>
+      <c r="B79" s="20"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H79" s="39"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="42"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H80" s="41"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="21"/>
+      <c r="A80" s="40">
+        <v>46631</v>
+      </c>
+      <c r="B80" s="20"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H80" s="39"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="42"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H81" s="41"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="21"/>
+      <c r="A81" s="40">
+        <v>46661</v>
+      </c>
+      <c r="B81" s="20"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H81" s="39"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="42"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H82" s="41"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="21"/>
+      <c r="A82" s="40">
+        <v>46692</v>
+      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H82" s="39"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="42"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H83" s="41"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="21"/>
+      <c r="A83" s="40">
+        <v>46722</v>
+      </c>
+      <c r="B83" s="20"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H83" s="39"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="42"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H84" s="41"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="21"/>
+      <c r="A84" s="40">
+        <v>46753</v>
+      </c>
+      <c r="B84" s="20"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H84" s="39"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="42"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H85" s="41"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="21"/>
+      <c r="A85" s="40">
+        <v>46784</v>
+      </c>
+      <c r="B85" s="20"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H85" s="39"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="42"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H86" s="41"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="21"/>
+      <c r="A86" s="40">
+        <v>46813</v>
+      </c>
+      <c r="B86" s="20"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H86" s="39"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="42"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H87" s="41"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="21"/>
+      <c r="A87" s="40">
+        <v>46844</v>
+      </c>
+      <c r="B87" s="20"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H87" s="39"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="42"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H88" s="41"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="21"/>
+      <c r="A88" s="40">
+        <v>46874</v>
+      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H88" s="39"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="42"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H89" s="41"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="21"/>
+      <c r="A89" s="40">
+        <v>46905</v>
+      </c>
+      <c r="B89" s="20"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H89" s="39"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="42"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H90" s="41"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
+      <c r="A90" s="40">
+        <v>46935</v>
+      </c>
+      <c r="B90" s="20"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H90" s="39"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="42"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H91" s="41"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="21"/>
+      <c r="A91" s="40">
+        <v>46966</v>
+      </c>
+      <c r="B91" s="20"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H91" s="39"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="42"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="41"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="21"/>
+      <c r="A92" s="40">
+        <v>46997</v>
+      </c>
+      <c r="B92" s="20"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H92" s="39"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="42"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H93" s="41"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="21"/>
+      <c r="A93" s="40">
+        <v>47027</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H93" s="39"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="42"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="41"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="21"/>
+      <c r="A94" s="40">
+        <v>47058</v>
+      </c>
+      <c r="B94" s="20"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="39"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="42"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H95" s="41"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="21"/>
+      <c r="A95" s="40">
+        <v>47088</v>
+      </c>
+      <c r="B95" s="20"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H95" s="39"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="42"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="41"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="21"/>
+      <c r="A96" s="40">
+        <v>47119</v>
+      </c>
+      <c r="B96" s="20"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H96" s="39"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="42"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="41"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="21"/>
+      <c r="A97" s="40">
+        <v>47150</v>
+      </c>
+      <c r="B97" s="20"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H97" s="39"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="42"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H98" s="41"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="21"/>
+      <c r="A98" s="40">
+        <v>47178</v>
+      </c>
+      <c r="B98" s="20"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H98" s="39"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="42"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H99" s="41"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="21"/>
+      <c r="A99" s="40">
+        <v>47209</v>
+      </c>
+      <c r="B99" s="20"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H99" s="39"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="42"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H100" s="41"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="21"/>
+      <c r="A100" s="40">
+        <v>47239</v>
+      </c>
+      <c r="B100" s="20"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H100" s="39"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="42"/>
-      <c r="B101" s="21"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H101" s="41"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="21"/>
+      <c r="A101" s="40">
+        <v>47270</v>
+      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H101" s="39"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="42"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H102" s="41"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="21"/>
+      <c r="A102" s="40">
+        <v>47300</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H102" s="39"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="42"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H103" s="41"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="21"/>
+      <c r="A103" s="40">
+        <v>47331</v>
+      </c>
+      <c r="B103" s="20"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H103" s="39"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="42"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H104" s="41"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="21"/>
+      <c r="A104" s="40">
+        <v>47362</v>
+      </c>
+      <c r="B104" s="20"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H104" s="39"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="42"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H105" s="41"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="21"/>
+      <c r="A105" s="40">
+        <v>47392</v>
+      </c>
+      <c r="B105" s="20"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H105" s="39"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="42"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H106" s="41"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="21"/>
+      <c r="A106" s="40">
+        <v>47423</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H106" s="39"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="42"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H107" s="41"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="21"/>
+      <c r="A107" s="40">
+        <v>47453</v>
+      </c>
+      <c r="B107" s="20"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H107" s="39"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="42"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H108" s="41"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="21"/>
+      <c r="A108" s="40">
+        <v>47484</v>
+      </c>
+      <c r="B108" s="20"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H108" s="39"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="42"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H109" s="41"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="21"/>
+      <c r="A109" s="40">
+        <v>47515</v>
+      </c>
+      <c r="B109" s="20"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H109" s="39"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="42"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H110" s="41"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="21"/>
+      <c r="A110" s="40">
+        <v>47543</v>
+      </c>
+      <c r="B110" s="20"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H110" s="39"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="42"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H111" s="41"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="21"/>
+      <c r="A111" s="40">
+        <v>47574</v>
+      </c>
+      <c r="B111" s="20"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H111" s="39"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="42"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H112" s="41"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="21"/>
+      <c r="A112" s="40">
+        <v>47604</v>
+      </c>
+      <c r="B112" s="20"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H112" s="39"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="42"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H113" s="41"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="21"/>
+      <c r="A113" s="40">
+        <v>47635</v>
+      </c>
+      <c r="B113" s="20"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H113" s="39"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="42"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="41"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H114" s="41"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="21"/>
+      <c r="A114" s="40">
+        <v>47665</v>
+      </c>
+      <c r="B114" s="20"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H114" s="39"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="42"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H115" s="41"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="21"/>
+      <c r="A115" s="40">
+        <v>47696</v>
+      </c>
+      <c r="B115" s="20"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H115" s="39"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="42"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H116" s="41"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="21"/>
+      <c r="A116" s="40">
+        <v>47727</v>
+      </c>
+      <c r="B116" s="20"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H116" s="39"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="42"/>
-      <c r="B117" s="21"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H117" s="41"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="21"/>
+      <c r="A117" s="40">
+        <v>47757</v>
+      </c>
+      <c r="B117" s="20"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H117" s="39"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="42"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H118" s="41"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="21"/>
+      <c r="A118" s="40">
+        <v>47788</v>
+      </c>
+      <c r="B118" s="20"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H118" s="39"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="42"/>
-      <c r="B119" s="21"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H119" s="41"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="21"/>
+      <c r="A119" s="40">
+        <v>47818</v>
+      </c>
+      <c r="B119" s="20"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H119" s="39"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="42"/>
-      <c r="B120" s="21"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H120" s="41"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="21"/>
+      <c r="A120" s="40">
+        <v>47849</v>
+      </c>
+      <c r="B120" s="20"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H120" s="39"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="42"/>
-      <c r="B121" s="21"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="41"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H121" s="41"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="21"/>
+      <c r="A121" s="40">
+        <v>47880</v>
+      </c>
+      <c r="B121" s="20"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H121" s="39"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="42"/>
-      <c r="B122" s="21"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H122" s="41"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="21"/>
+      <c r="A122" s="40">
+        <v>47908</v>
+      </c>
+      <c r="B122" s="20"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H122" s="39"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="42"/>
-      <c r="B123" s="21"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="41"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H123" s="41"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="21"/>
+      <c r="A123" s="40">
+        <v>47939</v>
+      </c>
+      <c r="B123" s="20"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H123" s="39"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="42"/>
-      <c r="B124" s="21"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H124" s="41"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="21"/>
+      <c r="A124" s="40">
+        <v>47969</v>
+      </c>
+      <c r="B124" s="20"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H124" s="39"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="42"/>
-      <c r="B125" s="21"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="41"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="41"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="21"/>
+      <c r="A125" s="40">
+        <v>48000</v>
+      </c>
+      <c r="B125" s="20"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H125" s="39"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="42"/>
-      <c r="B126" s="21"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="41"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H126" s="41"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="21"/>
+      <c r="A126" s="40"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H126" s="39"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="42"/>
-      <c r="B127" s="21"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="41"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="41"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="21"/>
+      <c r="A127" s="40"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H127" s="39"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="42"/>
-      <c r="B128" s="21"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="41"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="41"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="21"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H128" s="39"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="42"/>
-      <c r="B129" s="21"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="41"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="41"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="21"/>
+      <c r="A129" s="40"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="39"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="39"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="42"/>
-      <c r="B130" s="21"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="41"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="21"/>
-      <c r="G130" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="41"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="21"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="42"/>
-      <c r="B131" s="21"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="41"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="21"/>
-      <c r="G131" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="41"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="21"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="42"/>
-      <c r="B132" s="21"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="41"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="21"/>
-      <c r="G132" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="41"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="21"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="42"/>
-      <c r="B133" s="21"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="41"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="41"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="21"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="43"/>
-      <c r="B134" s="16"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="45"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="45"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="13"/>
-      <c r="K134" s="16"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3612,7 +3860,7 @@
     <col min="7" max="7" width="26.109375" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3630,10 +3878,10 @@
       <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3645,7 +3893,7 @@
       <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -3654,32 +3902,32 @@
       <c r="K2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="47">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="37">
+      <c r="J3" s="47"/>
+      <c r="K3" s="35">
         <f>J4-1</f>
         <v>-1</v>
       </c>
-      <c r="L3" s="47" t="str">
+      <c r="L3" s="45" t="str">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
         <v>---</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="35"/>
+      <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
@@ -3689,19 +3937,19 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="46"/>
       <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
@@ -3710,951 +3958,951 @@
       <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="39">
+      <c r="C7" s="37">
         <v>1</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="33">
         <v>2E-3</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="33">
         <v>0.125</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="I7" s="33" t="s">
+      <c r="G7" s="46"/>
+      <c r="I7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="39">
+      <c r="C8" s="37">
         <v>2</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="33">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="33">
         <v>0.25</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="33">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="36">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="36">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="39">
+      <c r="C9" s="37">
         <v>3</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="33">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="33">
         <v>0.375</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="33">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="36">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="36">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C10" s="39">
+      <c r="C10" s="37">
         <v>4</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="33">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="33">
         <v>0.5</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="33">
         <v>0.125</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="36">
         <v>0.125</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="36">
         <v>0.125</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="39">
+      <c r="C11" s="37">
         <v>5</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="33">
         <v>0.01</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="33">
         <v>0.625</v>
       </c>
       <c r="I11" s="1">
         <v>4</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="33">
         <v>0.16700000000000001</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="36">
         <v>0.16700000000000001</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="36">
         <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="39">
+      <c r="C12" s="37">
         <v>6</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="33">
         <v>1.2E-2</v>
       </c>
       <c r="E12" s="1">
         <v>6</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="33">
         <v>0.75</v>
       </c>
       <c r="I12" s="1">
         <v>5</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="33">
         <v>0.20800000000000002</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="36">
         <v>0.20800000000000002</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="36">
         <v>0.20800000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="39">
+      <c r="C13" s="37">
         <v>7</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E13" s="1">
         <v>7</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="33">
         <v>0.875</v>
       </c>
       <c r="I13" s="1">
         <v>6</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="33">
         <v>0.25</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="36">
         <v>0.25</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="36">
         <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="39">
+      <c r="C14" s="37">
         <v>8</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="33">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="E14" s="1">
         <v>8</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="33">
         <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>7</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="33">
         <v>0.29199999999999998</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="36">
         <v>0.29199999999999998</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="36">
         <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="39">
+      <c r="C15" s="37">
         <v>9</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="33">
         <v>1.9000000000000003E-2</v>
       </c>
       <c r="I15" s="1">
         <v>8</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="33">
         <v>0.33299999999999996</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="36">
         <v>0.33299999999999996</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="36">
         <v>0.33299999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="39">
+      <c r="C16" s="37">
         <v>10</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="33">
         <v>2.1000000000000005E-2</v>
       </c>
       <c r="I16" s="1">
         <v>9</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="33">
         <v>0.37499999999999994</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="36">
         <v>0.37499999999999994</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="36">
         <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="39">
+      <c r="C17" s="37">
         <v>11</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="33">
         <v>2.3000000000000007E-2</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="33">
         <v>0.41699999999999993</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="36">
         <v>0.41699999999999993</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="36">
         <v>0.41699999999999993</v>
       </c>
     </row>
     <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="39">
+      <c r="C18" s="37">
         <v>12</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="33">
         <v>2.5000000000000008E-2</v>
       </c>
       <c r="G18"/>
       <c r="I18" s="1">
         <v>11</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="33">
         <v>0.45799999999999991</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="36">
         <v>0.45799999999999991</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="36">
         <v>0.45799999999999991</v>
       </c>
     </row>
     <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="39">
+      <c r="C19" s="37">
         <v>13</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="33">
         <v>2.700000000000001E-2</v>
       </c>
       <c r="G19"/>
       <c r="I19" s="1">
         <v>12</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="33">
         <v>0.49999999999999989</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="36">
         <v>0.49999999999999989</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="36">
         <v>0.49999999999999989</v>
       </c>
     </row>
     <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="39">
+      <c r="C20" s="37">
         <v>14</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="33">
         <v>2.9000000000000012E-2</v>
       </c>
       <c r="G20"/>
       <c r="I20" s="1">
         <v>13</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="33">
         <v>0.54199999999999993</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="36">
         <v>0.54199999999999993</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="36">
         <v>0.54199999999999993</v>
       </c>
     </row>
     <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="39">
+      <c r="C21" s="37">
         <v>15</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="33">
         <v>3.1000000000000014E-2</v>
       </c>
       <c r="G21"/>
       <c r="I21" s="1">
         <v>14</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="33">
         <v>0.58299999999999996</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="36">
         <v>0.58299999999999996</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="36">
         <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="39">
+      <c r="C22" s="37">
         <v>16</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="33">
         <v>3.3000000000000015E-2</v>
       </c>
       <c r="G22"/>
       <c r="I22" s="1">
         <v>15</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="33">
         <v>0.625</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="36">
         <v>0.625</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="36">
         <v>0.625</v>
       </c>
     </row>
     <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="39">
+      <c r="C23" s="37">
         <v>17</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="33">
         <v>3.5000000000000017E-2</v>
       </c>
       <c r="G23"/>
       <c r="I23" s="1">
         <v>16</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="33">
         <v>0.66700000000000004</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="36">
         <v>0.66700000000000004</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="36">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="39">
+      <c r="C24" s="37">
         <v>18</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="33">
         <v>3.7000000000000019E-2</v>
       </c>
       <c r="G24"/>
       <c r="I24" s="1">
         <v>17</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="33">
         <v>0.70800000000000007</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="36">
         <v>0.70800000000000007</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="36">
         <v>0.70800000000000007</v>
       </c>
     </row>
     <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="39">
+      <c r="C25" s="37">
         <v>19</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="33">
         <v>0.04</v>
       </c>
       <c r="G25"/>
       <c r="I25" s="1">
         <v>18</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="33">
         <v>0.75000000000000011</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="36">
         <v>0.75000000000000011</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="36">
         <v>0.75000000000000011</v>
       </c>
     </row>
     <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="39">
+      <c r="C26" s="37">
         <v>20</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="33">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G26"/>
       <c r="I26" s="1">
         <v>19</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="33">
         <v>0.79200000000000015</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="36">
         <v>0.79200000000000015</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="36">
         <v>0.79200000000000015</v>
       </c>
     </row>
     <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="39">
+      <c r="C27" s="37">
         <v>21</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="33">
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="G27"/>
       <c r="I27" s="1">
         <v>20</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="33">
         <v>0.83300000000000018</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="36">
         <v>0.83300000000000018</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="36">
         <v>0.83300000000000018</v>
       </c>
     </row>
     <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="39">
+      <c r="C28" s="37">
         <v>22</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="33">
         <v>4.6000000000000006E-2</v>
       </c>
       <c r="G28"/>
       <c r="I28" s="1">
         <v>21</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="33">
         <v>0.87500000000000022</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="36">
         <v>0.87500000000000022</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="36">
         <v>0.87500000000000022</v>
       </c>
     </row>
     <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="39">
+      <c r="C29" s="37">
         <v>23</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="33">
         <v>4.8000000000000008E-2</v>
       </c>
       <c r="G29"/>
       <c r="I29" s="1">
         <v>22</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="33">
         <v>0.91700000000000026</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="36">
         <v>0.91700000000000026</v>
       </c>
-      <c r="L29" s="38">
+      <c r="L29" s="36">
         <v>0.91700000000000026</v>
       </c>
     </row>
     <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="39">
+      <c r="C30" s="37">
         <v>24</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="33">
         <v>5.000000000000001E-2</v>
       </c>
       <c r="G30"/>
       <c r="I30" s="1">
         <v>23</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="33">
         <v>0.9580000000000003</v>
       </c>
-      <c r="K30" s="38">
+      <c r="K30" s="36">
         <v>0.9580000000000003</v>
       </c>
-      <c r="L30" s="38">
+      <c r="L30" s="36">
         <v>0.9580000000000003</v>
       </c>
     </row>
     <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="39">
+      <c r="C31" s="37">
         <v>25</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="33">
         <v>5.2000000000000011E-2</v>
       </c>
       <c r="G31"/>
       <c r="I31" s="1">
         <v>24</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="33">
         <v>1.0000000000000002</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="36">
         <v>1.0000000000000002</v>
       </c>
-      <c r="L31" s="38">
+      <c r="L31" s="36">
         <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="39">
+      <c r="C32" s="37">
         <v>26</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="33">
         <v>5.4000000000000013E-2</v>
       </c>
       <c r="G32"/>
       <c r="I32" s="1">
         <v>25</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="33">
         <v>1.0420000000000003</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32" s="36">
         <v>1.0420000000000003</v>
       </c>
-      <c r="L32" s="38">
+      <c r="L32" s="36">
         <v>1.0420000000000003</v>
       </c>
     </row>
     <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="39">
+      <c r="C33" s="37">
         <v>27</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="33">
         <v>5.6000000000000015E-2</v>
       </c>
       <c r="G33"/>
       <c r="I33" s="1">
         <v>26</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="33">
         <v>1.0830000000000002</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="36">
         <v>1.0830000000000002</v>
       </c>
-      <c r="L33" s="38">
+      <c r="L33" s="36">
         <v>1.0830000000000002</v>
       </c>
     </row>
     <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="39">
+      <c r="C34" s="37">
         <v>28</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="33">
         <v>5.8000000000000017E-2</v>
       </c>
       <c r="G34"/>
       <c r="I34" s="1">
         <v>27</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="33">
         <v>1.1250000000000002</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="36">
         <v>1.1250000000000002</v>
       </c>
-      <c r="L34" s="38">
+      <c r="L34" s="36">
         <v>1.1250000000000002</v>
       </c>
     </row>
     <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="39">
+      <c r="C35" s="37">
         <v>29</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="33">
         <v>6.0000000000000019E-2</v>
       </c>
       <c r="G35"/>
       <c r="I35" s="1">
         <v>28</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="33">
         <v>1.1670000000000003</v>
       </c>
-      <c r="K35" s="38">
+      <c r="K35" s="36">
         <v>1.1670000000000003</v>
       </c>
-      <c r="L35" s="38">
+      <c r="L35" s="36">
         <v>1.1670000000000003</v>
       </c>
     </row>
     <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="39">
+      <c r="C36" s="37">
         <v>30</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="33">
         <v>6.200000000000002E-2</v>
       </c>
       <c r="G36"/>
       <c r="I36" s="1">
         <v>29</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J36" s="33">
         <v>1.2080000000000002</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K36" s="36">
         <v>1.2080000000000002</v>
       </c>
-      <c r="L36" s="38">
+      <c r="L36" s="36">
         <v>1.2080000000000002</v>
       </c>
     </row>
     <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="39">
+      <c r="C37" s="37">
         <v>31</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="33">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G37"/>
       <c r="I37" s="1">
         <v>30</v>
       </c>
-      <c r="J37" s="35">
+      <c r="J37" s="33">
         <v>1.2500000000000002</v>
       </c>
-      <c r="K37" s="38">
+      <c r="K37" s="36">
         <v>1.2500000000000002</v>
       </c>
-      <c r="L37" s="38">
+      <c r="L37" s="36">
         <v>1.2500000000000002</v>
       </c>
     </row>
     <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="39">
+      <c r="C38" s="37">
         <v>32</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="33">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G38"/>
     </row>
     <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="39">
+      <c r="C39" s="37">
         <v>33</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="33">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="G39"/>
     </row>
     <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="39">
+      <c r="C40" s="37">
         <v>34</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="33">
         <v>7.1000000000000008E-2</v>
       </c>
       <c r="G40"/>
     </row>
     <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="39">
+      <c r="C41" s="37">
         <v>35</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="33">
         <v>7.3000000000000009E-2</v>
       </c>
       <c r="G41"/>
     </row>
     <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="39">
+      <c r="C42" s="37">
         <v>36</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="33">
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="G42"/>
     </row>
     <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="39">
+      <c r="C43" s="37">
         <v>37</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="33">
         <v>7.7000000000000013E-2</v>
       </c>
       <c r="G43"/>
     </row>
     <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="39">
+      <c r="C44" s="37">
         <v>38</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="33">
         <v>7.9000000000000015E-2</v>
       </c>
       <c r="G44"/>
     </row>
     <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="39">
+      <c r="C45" s="37">
         <v>39</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="33">
         <v>8.1000000000000016E-2</v>
       </c>
       <c r="G45"/>
     </row>
     <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="39">
+      <c r="C46" s="37">
         <v>40</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="33">
         <v>8.3000000000000018E-2</v>
       </c>
       <c r="G46"/>
     </row>
     <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="39">
+      <c r="C47" s="37">
         <v>41</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="33">
         <v>8.500000000000002E-2</v>
       </c>
       <c r="G47"/>
     </row>
     <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="39">
+      <c r="C48" s="37">
         <v>42</v>
       </c>
-      <c r="D48" s="35">
+      <c r="D48" s="33">
         <v>8.7000000000000022E-2</v>
       </c>
       <c r="G48"/>
     </row>
     <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="39">
+      <c r="C49" s="37">
         <v>43</v>
       </c>
-      <c r="D49" s="35">
+      <c r="D49" s="33">
         <v>0.09</v>
       </c>
       <c r="G49"/>
     </row>
     <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="39">
+      <c r="C50" s="37">
         <v>44</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="33">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="G50"/>
     </row>
     <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="39">
+      <c r="C51" s="37">
         <v>45</v>
       </c>
-      <c r="D51" s="35">
+      <c r="D51" s="33">
         <v>9.4E-2</v>
       </c>
       <c r="G51"/>
     </row>
     <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="39">
+      <c r="C52" s="37">
         <v>46</v>
       </c>
-      <c r="D52" s="35">
+      <c r="D52" s="33">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="G52"/>
     </row>
     <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="39">
+      <c r="C53" s="37">
         <v>47</v>
       </c>
-      <c r="D53" s="35">
+      <c r="D53" s="33">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="G53"/>
     </row>
     <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="39">
+      <c r="C54" s="37">
         <v>48</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="33">
         <v>0.1</v>
       </c>
       <c r="G54"/>
     </row>
     <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="39">
+      <c r="C55" s="37">
         <v>49</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="33">
         <v>0.10200000000000001</v>
       </c>
       <c r="G55"/>
     </row>
     <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="39">
+      <c r="C56" s="37">
         <v>50</v>
       </c>
-      <c r="D56" s="35">
+      <c r="D56" s="33">
         <v>0.10400000000000001</v>
       </c>
       <c r="G56"/>
     </row>
     <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="39">
+      <c r="C57" s="37">
         <v>51</v>
       </c>
-      <c r="D57" s="35">
+      <c r="D57" s="33">
         <v>0.10600000000000001</v>
       </c>
       <c r="G57"/>
     </row>
     <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="39">
+      <c r="C58" s="37">
         <v>52</v>
       </c>
-      <c r="D58" s="35">
+      <c r="D58" s="33">
         <v>0.10800000000000001</v>
       </c>
       <c r="G58"/>
     </row>
     <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="39">
+      <c r="C59" s="37">
         <v>53</v>
       </c>
-      <c r="D59" s="35">
+      <c r="D59" s="33">
         <v>0.11000000000000001</v>
       </c>
       <c r="G59"/>
     </row>
     <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="39">
+      <c r="C60" s="37">
         <v>54</v>
       </c>
-      <c r="D60" s="35">
+      <c r="D60" s="33">
         <v>0.11200000000000002</v>
       </c>
       <c r="G60"/>
     </row>
     <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="39">
+      <c r="C61" s="37">
         <v>55</v>
       </c>
-      <c r="D61" s="35">
+      <c r="D61" s="33">
         <v>0.115</v>
       </c>
       <c r="G61"/>
     </row>
     <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="39">
+      <c r="C62" s="37">
         <v>56</v>
       </c>
-      <c r="D62" s="35">
+      <c r="D62" s="33">
         <v>0.11700000000000001</v>
       </c>
       <c r="G62"/>
     </row>
     <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="39">
+      <c r="C63" s="37">
         <v>57</v>
       </c>
-      <c r="D63" s="35">
+      <c r="D63" s="33">
         <v>0.11900000000000001</v>
       </c>
       <c r="G63"/>
     </row>
     <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="39">
+      <c r="C64" s="37">
         <v>58</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D64" s="33">
         <v>0.12100000000000001</v>
       </c>
       <c r="G64"/>
     </row>
     <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="39">
+      <c r="C65" s="37">
         <v>59</v>
       </c>
-      <c r="D65" s="35">
+      <c r="D65" s="33">
         <v>0.12300000000000001</v>
       </c>
       <c r="G65"/>
     </row>
     <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="39">
+      <c r="C66" s="37">
         <v>60</v>
       </c>
-      <c r="D66" s="35">
+      <c r="D66" s="33">
         <v>0.125</v>
       </c>
       <c r="G66"/>

--- a/REGULAR/TOLENTINO, ABRAHAM N.xlsx
+++ b/REGULAR/TOLENTINO, ABRAHAM N.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21780623-08B3-4268-B2C6-D21C3A9CFF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF26044-477E-4ADB-B7C5-4D8557ACE866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>OFFICIAL BANGKOK, THAILAND</t>
+  </si>
+  <si>
+    <t>VL(12-0-0)</t>
+  </si>
+  <si>
+    <t>CAMBODIA 5/3 - 18</t>
+  </si>
+  <si>
+    <t>BALI INDONESIA 4/29 - 5/1</t>
   </si>
 </sst>
 </file>
@@ -946,7 +955,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1275,12 +1284,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A14" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1843,9 +1852,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
@@ -1858,17 +1865,21 @@
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B27" s="20"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="20">
+        <v>12</v>
+      </c>
       <c r="G27" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -1876,11 +1887,13 @@
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
+      <c r="K27" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -1898,7 +1911,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -1916,7 +1929,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -1934,7 +1947,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -1952,7 +1965,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -1970,7 +1983,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -1988,7 +2001,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -2006,7 +2019,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -2024,7 +2037,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -2042,7 +2055,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -2060,7 +2073,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -2078,7 +2091,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -2096,7 +2109,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -2114,7 +2127,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -2132,7 +2145,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -2150,7 +2163,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -2168,7 +2181,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -2186,7 +2199,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -2204,7 +2217,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -2222,7 +2235,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -2240,7 +2253,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -2258,7 +2271,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2276,7 +2289,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -2294,7 +2307,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2312,7 +2325,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2330,7 +2343,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -2348,7 +2361,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2366,7 +2379,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2384,7 +2397,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2402,7 +2415,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2420,7 +2433,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2438,7 +2451,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2456,7 +2469,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2474,7 +2487,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2492,7 +2505,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2510,7 +2523,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2528,7 +2541,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2546,7 +2559,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2564,7 +2577,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2582,7 +2595,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2600,7 +2613,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2618,7 +2631,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2636,7 +2649,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2654,7 +2667,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2672,7 +2685,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2690,7 +2703,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2708,7 +2721,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2726,7 +2739,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2744,7 +2757,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2762,7 +2775,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2780,7 +2793,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2798,7 +2811,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2816,7 +2829,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2834,7 +2847,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2852,7 +2865,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2870,7 +2883,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2888,7 +2901,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2906,7 +2919,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2924,7 +2937,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -2942,7 +2955,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -2960,7 +2973,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -2978,7 +2991,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -2996,7 +3009,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3014,7 +3027,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3032,7 +3045,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3050,7 +3063,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3068,7 +3081,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3086,7 +3099,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3104,7 +3117,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>47119</v>
+        <v>47058</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3122,7 +3135,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>47150</v>
+        <v>47088</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3140,7 +3153,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>47178</v>
+        <v>47119</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3158,7 +3171,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>47209</v>
+        <v>47150</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3176,7 +3189,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>47239</v>
+        <v>47178</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3194,7 +3207,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>47270</v>
+        <v>47209</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3212,7 +3225,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>47300</v>
+        <v>47239</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3230,7 +3243,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>47331</v>
+        <v>47270</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3248,7 +3261,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>47362</v>
+        <v>47300</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3266,7 +3279,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>47392</v>
+        <v>47331</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3284,7 +3297,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>47423</v>
+        <v>47362</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3302,7 +3315,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>47453</v>
+        <v>47392</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3320,7 +3333,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>47484</v>
+        <v>47423</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3338,7 +3351,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>47515</v>
+        <v>47453</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3356,7 +3369,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>47543</v>
+        <v>47484</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3374,7 +3387,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>47574</v>
+        <v>47515</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3392,7 +3405,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>47604</v>
+        <v>47543</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3410,7 +3423,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>47635</v>
+        <v>47574</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3428,7 +3441,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>47665</v>
+        <v>47604</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3446,7 +3459,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>47696</v>
+        <v>47635</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3464,7 +3477,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>47727</v>
+        <v>47665</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3482,7 +3495,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>47757</v>
+        <v>47696</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3500,7 +3513,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>47788</v>
+        <v>47727</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3518,7 +3531,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>47818</v>
+        <v>47757</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3536,7 +3549,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>47849</v>
+        <v>47788</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3554,7 +3567,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>47880</v>
+        <v>47818</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3572,7 +3585,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>47908</v>
+        <v>47849</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3590,7 +3603,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>47939</v>
+        <v>47880</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3608,7 +3621,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>47969</v>
+        <v>47908</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3626,7 +3639,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>48000</v>
+        <v>47939</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3643,7 +3656,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>47969</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -3659,7 +3674,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>48000</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -3787,20 +3804,52 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="41"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="43"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/TOLENTINO, ABRAHAM N.xlsx
+++ b/REGULAR/TOLENTINO, ABRAHAM N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF26044-477E-4ADB-B7C5-4D8557ACE866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736D4957-BCA2-4C9D-AD01-A8F1763CAED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>BALI INDONESIA 4/29 - 5/1</t>
+  </si>
+  <si>
+    <t>BANGKOK THAILAND 7-9 2023</t>
+  </si>
+  <si>
+    <t>BANGKOK THAILAND 7-9 2024</t>
   </si>
 </sst>
 </file>
@@ -938,7 +944,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1287,9 +1293,9 @@
   <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A14" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1456,7 +1462,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1466,7 +1472,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -1630,7 +1636,7 @@
       </c>
       <c r="E16" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="F16" s="20">
         <v>4</v>
@@ -1642,7 +1648,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="48" t="s">
@@ -1895,19 +1901,27 @@
       <c r="A28" s="40">
         <v>44986</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="39"/>
+      <c r="B28" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D28" s="39">
+        <v>1</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G28" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="20" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">

--- a/REGULAR/TOLENTINO, ABRAHAM N.xlsx
+++ b/REGULAR/TOLENTINO, ABRAHAM N.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736D4957-BCA2-4C9D-AD01-A8F1763CAED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE73FAAE-3ECF-47D9-AA3A-0D735CC1D08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -261,7 +261,7 @@
     <t>BANGKOK THAILAND 7-9 2023</t>
   </si>
   <si>
-    <t>BANGKOK THAILAND 7-9 2024</t>
+    <t>BANGKOK THAILAND 5/30 - 6/1/2023</t>
   </si>
 </sst>
 </file>
@@ -944,7 +944,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1295,7 +1295,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,7 +1462,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="E16" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="20">
         <v>4</v>
@@ -1919,7 +1919,7 @@
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20" t="s">
+      <c r="K28" s="48" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1927,11 +1927,17 @@
       <c r="A29" s="40">
         <v>45017</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="39"/>
+      <c r="D29" s="39">
+        <v>2</v>
+      </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="20"/>
+      <c r="F29" s="20">
+        <v>1</v>
+      </c>
       <c r="G29" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -1939,7 +1945,9 @@
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
+      <c r="K29" s="48" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">

--- a/REGULAR/TOLENTINO, ABRAHAM N.xlsx
+++ b/REGULAR/TOLENTINO, ABRAHAM N.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE73FAAE-3ECF-47D9-AA3A-0D735CC1D08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F096398-E983-4EC8-9C89-E20390FBAD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>BANGKOK THAILAND 5/30 - 6/1/2023</t>
+  </si>
+  <si>
+    <t>HONGKONG 6/14-18/2023</t>
   </si>
 </sst>
 </file>
@@ -944,7 +947,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1295,7 +1298,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1472,7 +1475,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -1648,7 +1651,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="48" t="s">
@@ -1930,7 +1933,9 @@
       <c r="B29" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D29" s="39">
         <v>2</v>
       </c>
@@ -1938,9 +1943,9 @@
       <c r="F29" s="20">
         <v>1</v>
       </c>
-      <c r="G29" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
@@ -1954,13 +1959,15 @@
         <v>45047</v>
       </c>
       <c r="B30" s="20"/>
-      <c r="C30" s="13"/>
+      <c r="C30" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D30" s="39"/>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G30" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
@@ -1971,11 +1978,17 @@
       <c r="A31" s="40">
         <v>45078</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="39"/>
+      <c r="D31" s="39">
+        <v>2.5</v>
+      </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="20"/>
+      <c r="F31" s="20">
+        <v>0.5</v>
+      </c>
       <c r="G31" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -1983,7 +1996,9 @@
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="20"/>
+      <c r="K31" s="20" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">

--- a/REGULAR/TOLENTINO, ABRAHAM N.xlsx
+++ b/REGULAR/TOLENTINO, ABRAHAM N.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F096398-E983-4EC8-9C89-E20390FBAD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8319247A-7AC5-41CA-B2D8-0300A51AB722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -265,6 +265,18 @@
   </si>
   <si>
     <t>HONGKONG 6/14-18/2023</t>
+  </si>
+  <si>
+    <t>OFFICIAL BUSINESS</t>
+  </si>
+  <si>
+    <t>FUKUOKA JAPAN7/18-21/2023</t>
+  </si>
+  <si>
+    <t>ROME ITALY 7/27-31/2023</t>
+  </si>
+  <si>
+    <t>GLASGOW UK 8/1-5/2023</t>
   </si>
 </sst>
 </file>
@@ -964,7 +976,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1293,12 +1305,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K137"/>
+  <dimension ref="A2:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A19" activePane="bottomLeft"/>
-      <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="3576" topLeftCell="A28" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1482,7 +1494,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="40">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>45</v>
@@ -1578,7 +1590,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
-        <v>44774</v>
+        <v>44804</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>47</v>
@@ -1604,7 +1616,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
-        <v>44805</v>
+        <v>44834</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>57</v>
@@ -1660,7 +1672,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>47</v>
@@ -1686,7 +1698,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
-        <v>44866</v>
+        <v>44895</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>55</v>
@@ -1732,7 +1744,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
-        <v>44896</v>
+        <v>44926</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="42">
@@ -1770,7 +1782,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>54</v>
@@ -1838,7 +1850,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>69</v>
@@ -1902,7 +1914,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>69</v>
@@ -1928,7 +1940,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>47</v>
@@ -1956,7 +1968,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
@@ -1976,7 +1988,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>47</v>
@@ -2001,10 +2013,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B32" s="20"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
       <c r="E32" s="9"/>
@@ -2016,17 +2028,21 @@
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
+      <c r="K32" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B33" s="20"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="20"/>
+      <c r="F33" s="20">
+        <v>4</v>
+      </c>
       <c r="G33" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -2034,13 +2050,15 @@
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B34" s="20"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C34" s="13"/>
       <c r="D34" s="39"/>
       <c r="E34" s="9"/>
@@ -2052,11 +2070,13 @@
       <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="20"/>
+      <c r="K34" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <v>45200</v>
+        <v>45138</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -2074,7 +2094,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
-        <v>45231</v>
+        <v>45169</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -2092,7 +2112,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <v>45261</v>
+        <v>45199</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -2110,7 +2130,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <v>45292</v>
+        <v>45230</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -2128,7 +2148,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
-        <v>45323</v>
+        <v>45260</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -2146,7 +2166,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <v>45352</v>
+        <v>45291</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -2164,7 +2184,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <v>45383</v>
+        <v>45322</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -2182,7 +2202,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <v>45413</v>
+        <v>45351</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -2200,7 +2220,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>45444</v>
+        <v>45382</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -2218,7 +2238,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <v>45474</v>
+        <v>45412</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -2236,7 +2256,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <v>45505</v>
+        <v>45443</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -2254,7 +2274,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <v>45536</v>
+        <v>45473</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -2272,7 +2292,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>45566</v>
+        <v>45504</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -2290,7 +2310,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>45597</v>
+        <v>45535</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -2308,7 +2328,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <v>45627</v>
+        <v>45565</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2326,7 +2346,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <v>45658</v>
+        <v>45596</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -2344,7 +2364,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <v>45689</v>
+        <v>45626</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2362,7 +2382,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>45717</v>
+        <v>45657</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2380,7 +2400,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>45748</v>
+        <v>45688</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -2398,7 +2418,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>45778</v>
+        <v>45716</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2416,7 +2436,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>45809</v>
+        <v>45747</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2434,7 +2454,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>45839</v>
+        <v>45777</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2452,7 +2472,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>45870</v>
+        <v>45808</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2470,7 +2490,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>45901</v>
+        <v>45838</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2488,7 +2508,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>45931</v>
+        <v>45869</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2506,7 +2526,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>45962</v>
+        <v>45900</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2524,7 +2544,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>45992</v>
+        <v>45930</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2542,7 +2562,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>46023</v>
+        <v>45961</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2560,7 +2580,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>46054</v>
+        <v>45991</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2578,7 +2598,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>46082</v>
+        <v>46022</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2596,7 +2616,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>46113</v>
+        <v>46053</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2614,7 +2634,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>46143</v>
+        <v>46081</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2632,7 +2652,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>46174</v>
+        <v>46112</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2650,7 +2670,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>46204</v>
+        <v>46142</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2668,7 +2688,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>46235</v>
+        <v>46173</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2686,7 +2706,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>46266</v>
+        <v>46203</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2704,7 +2724,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>46296</v>
+        <v>46234</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2722,7 +2742,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>46327</v>
+        <v>46265</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2740,7 +2760,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>46357</v>
+        <v>46295</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2758,7 +2778,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>46388</v>
+        <v>46326</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2776,7 +2796,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>46419</v>
+        <v>46356</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2794,7 +2814,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>46447</v>
+        <v>46387</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2812,7 +2832,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>46478</v>
+        <v>46418</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2830,7 +2850,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>46508</v>
+        <v>46446</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2848,7 +2868,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>46539</v>
+        <v>46477</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2866,7 +2886,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>46569</v>
+        <v>46507</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2884,7 +2904,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>46600</v>
+        <v>46538</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2902,7 +2922,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>46631</v>
+        <v>46568</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2920,7 +2940,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>46661</v>
+        <v>46599</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2938,7 +2958,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>46692</v>
+        <v>46630</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2956,7 +2976,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>46722</v>
+        <v>46660</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2974,7 +2994,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>46753</v>
+        <v>46691</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -2992,7 +3012,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>46784</v>
+        <v>46721</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3010,7 +3030,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>46813</v>
+        <v>46752</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3028,7 +3048,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>46844</v>
+        <v>46783</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3046,7 +3066,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>46874</v>
+        <v>46812</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3064,7 +3084,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>46905</v>
+        <v>46843</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3082,7 +3102,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>46935</v>
+        <v>46873</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3100,7 +3120,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>46966</v>
+        <v>46904</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3118,7 +3138,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>46997</v>
+        <v>46934</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3136,7 +3156,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>47027</v>
+        <v>46965</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3154,7 +3174,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>47058</v>
+        <v>46996</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3172,7 +3192,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>47088</v>
+        <v>47026</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3190,7 +3210,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>47119</v>
+        <v>47057</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3208,7 +3228,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>47150</v>
+        <v>47087</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3226,7 +3246,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>47178</v>
+        <v>47118</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3244,7 +3264,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>47209</v>
+        <v>47149</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3261,9 +3281,7 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40">
-        <v>47239</v>
-      </c>
+      <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -3279,9 +3297,7 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40">
-        <v>47270</v>
-      </c>
+      <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3297,9 +3313,7 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40">
-        <v>47300</v>
-      </c>
+      <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3315,9 +3329,7 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40">
-        <v>47331</v>
-      </c>
+      <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -3333,9 +3345,7 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40">
-        <v>47362</v>
-      </c>
+      <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3351,9 +3361,7 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40">
-        <v>47392</v>
-      </c>
+      <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -3369,9 +3377,7 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40">
-        <v>47423</v>
-      </c>
+      <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -3387,9 +3393,7 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40">
-        <v>47453</v>
-      </c>
+      <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -3405,9 +3409,7 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40">
-        <v>47484</v>
-      </c>
+      <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -3423,9 +3425,7 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40">
-        <v>47515</v>
-      </c>
+      <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -3441,9 +3441,7 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40">
-        <v>47543</v>
-      </c>
+      <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -3459,9 +3457,7 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40">
-        <v>47574</v>
-      </c>
+      <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -3477,9 +3473,7 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40">
-        <v>47604</v>
-      </c>
+      <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -3495,9 +3489,7 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40">
-        <v>47635</v>
-      </c>
+      <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -3513,9 +3505,7 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40">
-        <v>47665</v>
-      </c>
+      <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -3531,9 +3521,7 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40">
-        <v>47696</v>
-      </c>
+      <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -3549,9 +3537,7 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40">
-        <v>47727</v>
-      </c>
+      <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -3567,9 +3553,7 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40">
-        <v>47757</v>
-      </c>
+      <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -3585,9 +3569,7 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40">
-        <v>47788</v>
-      </c>
+      <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -3603,9 +3585,7 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40">
-        <v>47818</v>
-      </c>
+      <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -3621,9 +3601,7 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40">
-        <v>47849</v>
-      </c>
+      <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -3639,9 +3617,7 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40">
-        <v>47880</v>
-      </c>
+      <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -3657,9 +3633,7 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40">
-        <v>47908</v>
-      </c>
+      <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -3675,9 +3649,7 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40">
-        <v>47939</v>
-      </c>
+      <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -3693,9 +3665,7 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40">
-        <v>47969</v>
-      </c>
+      <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -3711,9 +3681,7 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40">
-        <v>48000</v>
-      </c>
+      <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -3873,20 +3841,68 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="41"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="43"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="43"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
       <c r="I137" s="9"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="15"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="40"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="39"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="40"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="39"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="41"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="43"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/TOLENTINO, ABRAHAM N.xlsx
+++ b/REGULAR/TOLENTINO, ABRAHAM N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8319247A-7AC5-41CA-B2D8-0300A51AB722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BF00A1-0A76-4711-B8D9-D6B533C20D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>GLASGOW UK 8/1-5/2023</t>
+  </si>
+  <si>
+    <t>VIETNAM 6/30/2023</t>
+  </si>
+  <si>
+    <t>SINGAPORE 7/11-13/2023</t>
   </si>
 </sst>
 </file>
@@ -520,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -697,6 +703,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,7 +985,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K142" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1305,12 +1314,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K140"/>
+  <dimension ref="A2:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A28" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <pane ySplit="3576" topLeftCell="A25" activePane="bottomLeft"/>
+      <selection activeCell="G7" sqref="G7:J7"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1487,7 +1496,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>12.5</v>
+        <v>13.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -1663,7 +1672,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>12.5</v>
+        <v>13.75</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="48" t="s">
@@ -1993,7 +2002,9 @@
       <c r="B31" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D31" s="39">
         <v>2.5</v>
       </c>
@@ -2001,9 +2012,9 @@
       <c r="F31" s="20">
         <v>0.5</v>
       </c>
-      <c r="G31" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G31" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
@@ -2075,12 +2086,14 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="40">
-        <v>45138</v>
-      </c>
-      <c r="B35" s="20"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="39"/>
+      <c r="D35" s="39">
+        <v>1</v>
+      </c>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13" t="str">
@@ -2090,17 +2103,23 @@
       <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="20"/>
+      <c r="K35" s="61" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="40">
-        <v>45169</v>
-      </c>
-      <c r="B36" s="20"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="39"/>
+      <c r="D36" s="39">
+        <v>0.25</v>
+      </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="20"/>
+      <c r="F36" s="20">
+        <v>2.75</v>
+      </c>
       <c r="G36" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -2108,11 +2127,13 @@
       <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
+      <c r="K36" s="61" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <v>45199</v>
+        <v>45138</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -2130,7 +2151,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <v>45230</v>
+        <v>45169</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -2148,7 +2169,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
-        <v>45260</v>
+        <v>45199</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -2166,7 +2187,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <v>45291</v>
+        <v>45230</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -2184,7 +2205,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <v>45322</v>
+        <v>45260</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -2202,7 +2223,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <v>45351</v>
+        <v>45291</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -2220,7 +2241,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>45382</v>
+        <v>45322</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -2238,7 +2259,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <v>45412</v>
+        <v>45351</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -2256,7 +2277,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <v>45443</v>
+        <v>45382</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -2274,7 +2295,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <v>45473</v>
+        <v>45412</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -2292,7 +2313,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>45504</v>
+        <v>45443</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -2310,7 +2331,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>45535</v>
+        <v>45473</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -2328,7 +2349,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <v>45565</v>
+        <v>45504</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2346,7 +2367,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <v>45596</v>
+        <v>45535</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -2364,7 +2385,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <v>45626</v>
+        <v>45565</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2382,7 +2403,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>45657</v>
+        <v>45596</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2400,7 +2421,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>45688</v>
+        <v>45626</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -2418,7 +2439,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>45716</v>
+        <v>45657</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2436,7 +2457,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>45747</v>
+        <v>45688</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2454,7 +2475,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>45777</v>
+        <v>45716</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2472,7 +2493,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>45808</v>
+        <v>45747</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2490,7 +2511,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>45838</v>
+        <v>45777</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2508,7 +2529,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>45869</v>
+        <v>45808</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2526,7 +2547,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>45900</v>
+        <v>45838</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2544,7 +2565,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>45930</v>
+        <v>45869</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2562,7 +2583,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>45961</v>
+        <v>45900</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2580,7 +2601,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>45991</v>
+        <v>45930</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2598,7 +2619,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>46022</v>
+        <v>45961</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2616,7 +2637,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>46053</v>
+        <v>45991</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2634,7 +2655,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>46081</v>
+        <v>46022</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2652,7 +2673,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>46112</v>
+        <v>46053</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2670,7 +2691,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>46142</v>
+        <v>46081</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2688,7 +2709,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>46173</v>
+        <v>46112</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2706,7 +2727,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>46203</v>
+        <v>46142</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2724,7 +2745,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>46234</v>
+        <v>46173</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2742,7 +2763,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>46265</v>
+        <v>46203</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2760,7 +2781,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>46295</v>
+        <v>46234</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2778,7 +2799,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>46326</v>
+        <v>46265</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2796,7 +2817,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>46356</v>
+        <v>46295</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2814,7 +2835,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>46387</v>
+        <v>46326</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2832,7 +2853,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>46418</v>
+        <v>46356</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2850,7 +2871,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>46446</v>
+        <v>46387</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2868,7 +2889,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>46477</v>
+        <v>46418</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2886,7 +2907,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>46507</v>
+        <v>46446</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2904,7 +2925,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>46538</v>
+        <v>46477</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2922,7 +2943,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>46568</v>
+        <v>46507</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2940,7 +2961,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>46599</v>
+        <v>46538</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2958,7 +2979,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>46630</v>
+        <v>46568</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2976,7 +2997,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>46660</v>
+        <v>46599</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2994,7 +3015,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>46691</v>
+        <v>46630</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3012,7 +3033,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>46721</v>
+        <v>46660</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3030,7 +3051,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>46752</v>
+        <v>46691</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3048,7 +3069,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>46783</v>
+        <v>46721</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3066,7 +3087,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>46812</v>
+        <v>46752</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3084,7 +3105,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>46843</v>
+        <v>46783</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3102,7 +3123,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>46873</v>
+        <v>46812</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3120,7 +3141,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>46904</v>
+        <v>46843</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3138,7 +3159,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>46934</v>
+        <v>46873</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3156,7 +3177,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>46965</v>
+        <v>46904</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3174,7 +3195,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>46996</v>
+        <v>46934</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3192,7 +3213,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>47026</v>
+        <v>46965</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3210,7 +3231,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>47057</v>
+        <v>46996</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3228,7 +3249,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>47087</v>
+        <v>47026</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3246,7 +3267,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>47118</v>
+        <v>47057</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3264,7 +3285,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>47149</v>
+        <v>47087</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3281,7 +3302,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>47118</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -3297,7 +3320,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>47149</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3889,20 +3914,52 @@
       <c r="K139" s="20"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="41"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="42"/>
-      <c r="D140" s="43"/>
+      <c r="A140" s="40"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H140" s="43"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="39"/>
       <c r="I140" s="9"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="15"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="40"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="39"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="41"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="42"/>
+      <c r="D142" s="43"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="43"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/TOLENTINO, ABRAHAM N.xlsx
+++ b/REGULAR/TOLENTINO, ABRAHAM N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BF00A1-0A76-4711-B8D9-D6B533C20D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835FF4A7-074F-4836-B31F-FA0D86CDDD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
   <si>
     <t>PERIOD</t>
   </si>
@@ -283,6 +283,15 @@
   </si>
   <si>
     <t>SINGAPORE 7/11-13/2023</t>
+  </si>
+  <si>
+    <t>HANGZHOU, CHINA 9/19 - 10/7/2023</t>
+  </si>
+  <si>
+    <t>BANGKOK THAILAND 8/18-20/2023</t>
+  </si>
+  <si>
+    <t>OFFICIAL BUSINESS SEA GAMES</t>
   </si>
 </sst>
 </file>
@@ -295,7 +304,7 @@
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +345,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -526,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,6 +687,15 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,8 +729,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,7 +967,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -985,25 +1012,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K142" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1310,16 +1337,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K142"/>
+  <dimension ref="A2:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A25" activePane="bottomLeft"/>
-      <selection activeCell="G7" sqref="G7:J7"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="3576" topLeftCell="A28" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1328,11 +1355,11 @@
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
@@ -1341,68 +1368,68 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="56"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="60">
         <v>44743</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -1428,18 +1455,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1486,7 +1513,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1496,7 +1523,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>13.75</v>
+        <v>15</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -1660,7 +1687,7 @@
       </c>
       <c r="E16" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F16" s="20">
         <v>4</v>
@@ -1672,7 +1699,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>13.75</v>
+        <v>15</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="48" t="s">
@@ -2103,7 +2130,7 @@
       <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="61" t="s">
+      <c r="K35" s="50" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2127,7 +2154,7 @@
       <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="61" t="s">
+      <c r="K36" s="50" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2136,13 +2163,15 @@
         <v>45138</v>
       </c>
       <c r="B37" s="20"/>
-      <c r="C37" s="13"/>
+      <c r="C37" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D37" s="39"/>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G37" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
@@ -2153,8 +2182,10 @@
       <c r="A38" s="40">
         <v>45169</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="13"/>
+      <c r="B38" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="65"/>
       <c r="D38" s="39"/>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
@@ -2165,15 +2196,19 @@
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="52" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="40">
-        <v>45199</v>
-      </c>
-      <c r="B39" s="20"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="51" t="s">
+        <v>69</v>
+      </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="39"/>
+      <c r="D39" s="39">
+        <v>1</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
       <c r="G39" s="13" t="str">
@@ -2183,11 +2218,13 @@
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="20"/>
+      <c r="K39" s="52" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -2205,7 +2242,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -2223,7 +2260,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -2241,7 +2278,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>45322</v>
+        <v>45291</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -2259,7 +2296,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -2277,7 +2314,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -2295,7 +2332,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -2313,7 +2350,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -2331,7 +2368,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -2349,7 +2386,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2367,7 +2404,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -2385,7 +2422,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2403,7 +2440,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2421,7 +2458,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -2439,7 +2476,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2457,7 +2494,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2475,7 +2512,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2493,7 +2530,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2511,7 +2548,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2529,7 +2566,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2547,7 +2584,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2565,7 +2602,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2583,7 +2620,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2601,7 +2638,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2619,7 +2656,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2637,7 +2674,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2655,7 +2692,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2673,7 +2710,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2691,7 +2728,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2709,7 +2746,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2727,7 +2764,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2745,7 +2782,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2763,7 +2800,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2781,7 +2818,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>46234</v>
+        <v>46203</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2799,7 +2836,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>46265</v>
+        <v>46234</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2817,7 +2854,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>46295</v>
+        <v>46265</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2835,7 +2872,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>46326</v>
+        <v>46295</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2853,7 +2890,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>46356</v>
+        <v>46326</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2871,7 +2908,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>46387</v>
+        <v>46356</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2889,7 +2926,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>46418</v>
+        <v>46387</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2907,7 +2944,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>46446</v>
+        <v>46418</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2925,7 +2962,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>46477</v>
+        <v>46446</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2943,7 +2980,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>46507</v>
+        <v>46477</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2961,7 +2998,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>46538</v>
+        <v>46507</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2979,7 +3016,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>46568</v>
+        <v>46538</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2997,7 +3034,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>46599</v>
+        <v>46568</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -3015,7 +3052,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>46630</v>
+        <v>46599</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3033,7 +3070,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>46660</v>
+        <v>46630</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3051,7 +3088,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>46691</v>
+        <v>46660</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3069,7 +3106,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>46721</v>
+        <v>46691</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3087,7 +3124,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>46752</v>
+        <v>46721</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3105,7 +3142,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>46783</v>
+        <v>46752</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3123,7 +3160,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>46812</v>
+        <v>46783</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3141,7 +3178,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>46843</v>
+        <v>46812</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3159,7 +3196,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>46873</v>
+        <v>46843</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3177,7 +3214,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>46904</v>
+        <v>46873</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3195,7 +3232,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>46934</v>
+        <v>46904</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3213,7 +3250,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>46965</v>
+        <v>46934</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3231,7 +3268,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>46996</v>
+        <v>46965</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3249,7 +3286,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>47026</v>
+        <v>46996</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3267,7 +3304,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>47057</v>
+        <v>47026</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3285,7 +3322,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>47087</v>
+        <v>47057</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3303,7 +3340,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>47118</v>
+        <v>47087</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3321,7 +3358,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>47149</v>
+        <v>47118</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3338,7 +3375,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>47149</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3946,20 +3985,36 @@
       <c r="K141" s="20"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="41"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="42"/>
-      <c r="D142" s="43"/>
+      <c r="A142" s="40"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
       <c r="E142" s="9"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H142" s="43"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39"/>
       <c r="I142" s="9"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="15"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="41"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="42"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="43"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3976,10 +4031,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4002,7 +4057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4011,8 +4066,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -4024,17 +4079,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -4109,12 +4164,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/TOLENTINO, ABRAHAM N.xlsx
+++ b/REGULAR/TOLENTINO, ABRAHAM N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835FF4A7-074F-4836-B31F-FA0D86CDDD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598438B0-664D-4C09-AB2C-E5DDBF3E99E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
   <si>
     <t>PERIOD</t>
   </si>
@@ -292,6 +292,15 @@
   </si>
   <si>
     <t>OFFICIAL BUSINESS SEA GAMES</t>
+  </si>
+  <si>
+    <t>10/21-25 RIYAD SAUDI ARABIA</t>
+  </si>
+  <si>
+    <t>11/2 - 6 JAPAN</t>
+  </si>
+  <si>
+    <t>1/17-19/2024, SOUTH KOREA</t>
   </si>
 </sst>
 </file>
@@ -696,6 +705,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,12 +743,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1344,9 +1353,9 @@
   <dimension ref="A2:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A28" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <pane ySplit="3984" topLeftCell="A34" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1368,68 +1377,68 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="62">
         <v>44743</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -1455,18 +1464,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1513,7 +1522,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1523,7 +1532,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>15</v>
+        <v>18.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -1687,7 +1696,7 @@
       </c>
       <c r="E16" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F16" s="20">
         <v>4</v>
@@ -1699,7 +1708,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>15</v>
+        <v>18.75</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="48" t="s">
@@ -2182,16 +2191,18 @@
       <c r="A38" s="40">
         <v>45169</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="65"/>
+      <c r="C38" s="54">
+        <v>1.25</v>
+      </c>
       <c r="D38" s="39"/>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G38" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
@@ -2226,47 +2237,71 @@
       <c r="A40" s="40">
         <v>45199</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="39"/>
+      <c r="B40" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D40" s="39">
+        <v>2.75</v>
+      </c>
       <c r="E40" s="9"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="F40" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G40" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="20"/>
+      <c r="K40" s="48" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>45230</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="39"/>
+      <c r="B41" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D41" s="39">
+        <v>1.25</v>
+      </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="F41" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="G41" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="K41" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>45260</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C42" s="13"/>
       <c r="D42" s="39"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="20"/>
+      <c r="F42" s="20">
+        <v>3</v>
+      </c>
       <c r="G42" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -2274,7 +2309,9 @@
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
@@ -4079,17 +4116,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="J1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -4164,12 +4201,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/TOLENTINO, ABRAHAM N.xlsx
+++ b/REGULAR/TOLENTINO, ABRAHAM N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598438B0-664D-4C09-AB2C-E5DDBF3E99E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B593EF-1410-4D0B-839F-1950EFEA2A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>1/17-19/2024, SOUTH KOREA</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2/21-25 TAIPEI</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1027,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1350,12 +1356,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K143"/>
+  <dimension ref="A2:K144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3984" topLeftCell="A34" activePane="bottomLeft"/>
+      <pane ySplit="3984" topLeftCell="A36" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1522,7 +1528,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0</v>
+        <v>0.62300000000000111</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1532,7 +1538,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>18.75</v>
+        <v>19.373000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -1667,7 +1673,7 @@
         <v>57</v>
       </c>
       <c r="C15" s="13">
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>61</v>
@@ -1676,7 +1682,7 @@
       <c r="F15" s="20"/>
       <c r="G15" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0830000000000002</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
@@ -1696,7 +1702,7 @@
       </c>
       <c r="E16" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0</v>
+        <v>0.62300000000000111</v>
       </c>
       <c r="F16" s="20">
         <v>4</v>
@@ -1708,7 +1714,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>18.75</v>
+        <v>19.373000000000001</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="48" t="s">
@@ -1723,7 +1729,7 @@
         <v>47</v>
       </c>
       <c r="C17" s="13">
-        <v>1.25</v>
+        <v>0.83300000000000018</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>61</v>
@@ -1732,7 +1738,7 @@
       <c r="F17" s="20"/>
       <c r="G17" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.83300000000000018</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="9"/>
@@ -1833,7 +1839,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="13">
-        <v>1.25</v>
+        <v>0.9580000000000003</v>
       </c>
       <c r="D22" s="39">
         <v>2</v>
@@ -1844,7 +1850,7 @@
       </c>
       <c r="G22" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.9580000000000003</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
@@ -1901,14 +1907,14 @@
         <v>69</v>
       </c>
       <c r="C25" s="13">
-        <v>1.25</v>
+        <v>0.75000000000000011</v>
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
       <c r="G25" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.75000000000000011</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
@@ -1919,7 +1925,9 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
@@ -1991,7 +1999,7 @@
         <v>47</v>
       </c>
       <c r="C29" s="13">
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="D29" s="39">
         <v>2</v>
@@ -2002,7 +2010,7 @@
       </c>
       <c r="G29" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
@@ -2039,7 +2047,7 @@
         <v>47</v>
       </c>
       <c r="C31" s="13">
-        <v>1.25</v>
+        <v>0.9580000000000003</v>
       </c>
       <c r="D31" s="39">
         <v>2.5</v>
@@ -2050,7 +2058,7 @@
       </c>
       <c r="G31" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>0.9580000000000003</v>
       </c>
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
@@ -2269,7 +2277,7 @@
         <v>45</v>
       </c>
       <c r="C41" s="13">
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="D41" s="39">
         <v>1.25</v>
@@ -2280,7 +2288,7 @@
       </c>
       <c r="G41" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.2080000000000002</v>
       </c>
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
@@ -2296,15 +2304,17 @@
       <c r="B42" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="13"/>
+      <c r="C42" s="13">
+        <v>1.1250000000000002</v>
+      </c>
       <c r="D42" s="39"/>
       <c r="E42" s="9"/>
       <c r="F42" s="20">
         <v>3</v>
       </c>
-      <c r="G42" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G42" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
@@ -2318,13 +2328,15 @@
         <v>45291</v>
       </c>
       <c r="B43" s="20"/>
-      <c r="C43" s="13"/>
+      <c r="C43" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D43" s="39"/>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G43" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="9"/>
@@ -2332,8 +2344,8 @@
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="40">
-        <v>45322</v>
+      <c r="A44" s="49" t="s">
+        <v>89</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -2351,13 +2363,17 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B45" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C45" s="13"/>
       <c r="D45" s="39"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="20"/>
+      <c r="F45" s="20">
+        <v>3</v>
+      </c>
       <c r="G45" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -2365,11 +2381,13 @@
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
+      <c r="K45" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -2387,7 +2405,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -2405,7 +2423,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -2423,7 +2441,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2441,7 +2459,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -2459,7 +2477,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2477,7 +2495,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2495,7 +2513,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -2513,7 +2531,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2531,7 +2549,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2549,7 +2567,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2567,7 +2585,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2585,7 +2603,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2603,7 +2621,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2621,7 +2639,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2639,7 +2657,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2657,7 +2675,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2675,7 +2693,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2693,7 +2711,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2711,7 +2729,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2729,7 +2747,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2747,7 +2765,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2765,7 +2783,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2783,7 +2801,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2801,7 +2819,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2819,7 +2837,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2837,7 +2855,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2855,7 +2873,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2873,7 +2891,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>46234</v>
+        <v>46203</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2891,7 +2909,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>46265</v>
+        <v>46234</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2909,7 +2927,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>46295</v>
+        <v>46265</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2927,7 +2945,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>46326</v>
+        <v>46295</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2945,7 +2963,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>46356</v>
+        <v>46326</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2963,7 +2981,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>46387</v>
+        <v>46356</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2981,7 +2999,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>46418</v>
+        <v>46387</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2999,7 +3017,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>46446</v>
+        <v>46418</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -3017,7 +3035,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>46477</v>
+        <v>46446</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -3035,7 +3053,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>46507</v>
+        <v>46477</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -3053,7 +3071,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>46538</v>
+        <v>46507</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -3071,7 +3089,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>46568</v>
+        <v>46538</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -3089,7 +3107,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>46599</v>
+        <v>46568</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3107,7 +3125,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>46630</v>
+        <v>46599</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3125,7 +3143,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>46660</v>
+        <v>46630</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3143,7 +3161,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>46691</v>
+        <v>46660</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3161,7 +3179,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>46721</v>
+        <v>46691</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3179,7 +3197,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>46752</v>
+        <v>46721</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3197,7 +3215,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>46783</v>
+        <v>46752</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3215,7 +3233,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>46812</v>
+        <v>46783</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3233,7 +3251,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>46843</v>
+        <v>46812</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3251,7 +3269,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>46873</v>
+        <v>46843</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3269,7 +3287,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>46904</v>
+        <v>46873</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3287,7 +3305,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>46934</v>
+        <v>46904</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3305,7 +3323,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>46965</v>
+        <v>46934</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3323,7 +3341,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>46996</v>
+        <v>46965</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3341,7 +3359,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>47026</v>
+        <v>46996</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3359,7 +3377,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>47057</v>
+        <v>47026</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3377,7 +3395,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>47087</v>
+        <v>47057</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3395,7 +3413,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>47118</v>
+        <v>47087</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3413,7 +3431,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>47149</v>
+        <v>47118</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3430,7 +3448,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>47149</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -4038,20 +4058,36 @@
       <c r="K142" s="20"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="41"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="42"/>
-      <c r="D143" s="43"/>
+      <c r="A143" s="40"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="39"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H143" s="43"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="39"/>
       <c r="I143" s="9"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="15"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="41"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="42"/>
+      <c r="D144" s="43"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="43"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4097,8 +4133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/REGULAR/TOLENTINO, ABRAHAM N.xlsx
+++ b/REGULAR/TOLENTINO, ABRAHAM N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B593EF-1410-4D0B-839F-1950EFEA2A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7243EF-83E5-4166-AFD9-AB3DDD3F269D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
   <si>
     <t>PERIOD</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>2/21-25 TAIPEI</t>
+  </si>
+  <si>
+    <t>3/8-12/2024 ITALY</t>
+  </si>
+  <si>
+    <t>3/27-31/2024 THAILAND</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1033,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K146" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1356,12 +1362,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K144"/>
+  <dimension ref="A2:K146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3984" topLeftCell="A36" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2386,14 +2392,16 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B46" s="20"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C46" s="13"/>
       <c r="D46" s="39"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="20"/>
+      <c r="F46" s="20">
+        <v>3</v>
+      </c>
       <c r="G46" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -2401,17 +2409,21 @@
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="20" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="40">
-        <v>45382</v>
-      </c>
-      <c r="B47" s="20"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="20"/>
+      <c r="F47" s="20">
+        <v>1</v>
+      </c>
       <c r="G47" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -2419,11 +2431,13 @@
       <c r="H47" s="39"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20"/>
+      <c r="K47" s="20" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>45412</v>
+        <v>45351</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -2441,7 +2455,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <v>45443</v>
+        <v>45382</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2459,7 +2473,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <v>45473</v>
+        <v>45412</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -2477,7 +2491,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <v>45504</v>
+        <v>45443</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2495,7 +2509,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>45535</v>
+        <v>45473</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2513,7 +2527,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>45565</v>
+        <v>45504</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -2531,7 +2545,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>45596</v>
+        <v>45535</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2549,7 +2563,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>45626</v>
+        <v>45565</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2567,7 +2581,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>45657</v>
+        <v>45596</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2585,7 +2599,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>45688</v>
+        <v>45626</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2603,7 +2617,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>45716</v>
+        <v>45657</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2621,7 +2635,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>45747</v>
+        <v>45688</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2639,7 +2653,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>45777</v>
+        <v>45716</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2657,7 +2671,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>45808</v>
+        <v>45747</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2675,7 +2689,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>45838</v>
+        <v>45777</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2693,7 +2707,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>45869</v>
+        <v>45808</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2711,7 +2725,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>45900</v>
+        <v>45838</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2729,7 +2743,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>45930</v>
+        <v>45869</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2747,7 +2761,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>45961</v>
+        <v>45900</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2765,7 +2779,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>45991</v>
+        <v>45930</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2783,7 +2797,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>46022</v>
+        <v>45961</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2801,7 +2815,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>46053</v>
+        <v>45991</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2819,7 +2833,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>46081</v>
+        <v>46022</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2837,7 +2851,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>46112</v>
+        <v>46053</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2855,7 +2869,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>46142</v>
+        <v>46081</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2873,7 +2887,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>46173</v>
+        <v>46112</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2891,7 +2905,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>46203</v>
+        <v>46142</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2909,7 +2923,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>46234</v>
+        <v>46173</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2927,7 +2941,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>46265</v>
+        <v>46203</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2945,7 +2959,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>46295</v>
+        <v>46234</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2963,7 +2977,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>46326</v>
+        <v>46265</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2981,7 +2995,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>46356</v>
+        <v>46295</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2999,7 +3013,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>46387</v>
+        <v>46326</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -3017,7 +3031,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>46418</v>
+        <v>46356</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -3035,7 +3049,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>46446</v>
+        <v>46387</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -3053,7 +3067,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>46477</v>
+        <v>46418</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -3071,7 +3085,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>46507</v>
+        <v>46446</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -3089,7 +3103,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>46538</v>
+        <v>46477</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -3107,7 +3121,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>46568</v>
+        <v>46507</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3125,7 +3139,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>46599</v>
+        <v>46538</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3143,7 +3157,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>46630</v>
+        <v>46568</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3161,7 +3175,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>46660</v>
+        <v>46599</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3179,7 +3193,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>46691</v>
+        <v>46630</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3197,7 +3211,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>46721</v>
+        <v>46660</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3215,7 +3229,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>46752</v>
+        <v>46691</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3233,7 +3247,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>46783</v>
+        <v>46721</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3251,7 +3265,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>46812</v>
+        <v>46752</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3269,7 +3283,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>46843</v>
+        <v>46783</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3287,7 +3301,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>46873</v>
+        <v>46812</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3305,7 +3319,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>46904</v>
+        <v>46843</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3323,7 +3337,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>46934</v>
+        <v>46873</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3341,7 +3355,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>46965</v>
+        <v>46904</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3359,7 +3373,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>46996</v>
+        <v>46934</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3377,7 +3391,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>47026</v>
+        <v>46965</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3395,7 +3409,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>47057</v>
+        <v>46996</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3413,7 +3427,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>47087</v>
+        <v>47026</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3431,7 +3445,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>47118</v>
+        <v>47057</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3449,7 +3463,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>47149</v>
+        <v>47087</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3466,7 +3480,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>47118</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3482,7 +3498,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>47149</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -4074,20 +4092,52 @@
       <c r="K143" s="20"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="41"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="42"/>
-      <c r="D144" s="43"/>
+      <c r="A144" s="40"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H144" s="43"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
       <c r="I144" s="9"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="15"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="40"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="39"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="41"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="42"/>
+      <c r="D146" s="43"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="43"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4133,7 +4183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>

--- a/REGULAR/TOLENTINO, ABRAHAM N.xlsx
+++ b/REGULAR/TOLENTINO, ABRAHAM N.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7243EF-83E5-4166-AFD9-AB3DDD3F269D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -318,7 +317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1016,7 +1015,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1033,25 +1032,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K146" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K146" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1358,34 +1357,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3984" topLeftCell="A36" activePane="bottomLeft"/>
+      <pane ySplit="3990" topLeftCell="A33" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1408,7 +1407,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1430,7 +1429,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1452,7 +1451,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1460,7 +1459,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1473,7 +1472,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -1490,7 +1489,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1525,7 +1524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1534,7 +1533,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0.62300000000000111</v>
+        <v>1.8730000000000011</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1544,12 +1543,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>19.373000000000001</v>
+        <v>20.623000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <v>44773</v>
       </c>
@@ -1579,7 +1578,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="20" t="s">
         <v>47</v>
@@ -1601,7 +1600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>47</v>
@@ -1623,7 +1622,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>54</v>
@@ -1645,7 +1644,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>44804</v>
       </c>
@@ -1671,7 +1670,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>44834</v>
       </c>
@@ -1697,7 +1696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>59</v>
@@ -1708,7 +1707,7 @@
       </c>
       <c r="E16" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0.62300000000000111</v>
+        <v>1.8730000000000011</v>
       </c>
       <c r="F16" s="20">
         <v>4</v>
@@ -1720,14 +1719,14 @@
       <c r="H16" s="39"/>
       <c r="I16" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>19.373000000000001</v>
+        <v>20.623000000000001</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="48" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>44865</v>
       </c>
@@ -1753,7 +1752,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>44895</v>
       </c>
@@ -1777,7 +1776,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>51</v>
@@ -1799,7 +1798,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>44926</v>
       </c>
@@ -1819,7 +1818,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>65</v>
       </c>
@@ -1837,7 +1836,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44957</v>
       </c>
@@ -1865,7 +1864,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>57</v>
@@ -1885,7 +1884,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>45</v>
@@ -1905,7 +1904,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44985</v>
       </c>
@@ -1929,7 +1928,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>61</v>
@@ -1949,7 +1948,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>71</v>
@@ -1971,7 +1970,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>45016</v>
       </c>
@@ -1997,7 +1996,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>45046</v>
       </c>
@@ -2025,7 +2024,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>45077</v>
       </c>
@@ -2045,7 +2044,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>45107</v>
       </c>
@@ -2073,7 +2072,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>77</v>
@@ -2093,7 +2092,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>51</v>
@@ -2115,7 +2114,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>77</v>
@@ -2135,7 +2134,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>69</v>
@@ -2157,7 +2156,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>47</v>
@@ -2181,7 +2180,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>45138</v>
       </c>
@@ -2201,7 +2200,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>45169</v>
       </c>
@@ -2225,7 +2224,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="51" t="s">
         <v>69</v>
@@ -2247,7 +2246,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>45199</v>
       </c>
@@ -2275,7 +2274,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>45230</v>
       </c>
@@ -2303,7 +2302,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>45260</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>45291</v>
       </c>
@@ -2349,7 +2348,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="49" t="s">
         <v>89</v>
       </c>
@@ -2367,22 +2366,24 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>45322</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="13"/>
+      <c r="C45" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D45" s="39"/>
       <c r="E45" s="9"/>
       <c r="F45" s="20">
         <v>3</v>
       </c>
-      <c r="G45" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G45" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
@@ -2391,7 +2392,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>47</v>
@@ -2413,7 +2414,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>69</v>
@@ -2435,7 +2436,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>45351</v>
       </c>
@@ -2453,7 +2454,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>45382</v>
       </c>
@@ -2471,7 +2472,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>45412</v>
       </c>
@@ -2489,7 +2490,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>45443</v>
       </c>
@@ -2507,7 +2508,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>45473</v>
       </c>
@@ -2525,7 +2526,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>45504</v>
       </c>
@@ -2543,7 +2544,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>45535</v>
       </c>
@@ -2561,7 +2562,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>45565</v>
       </c>
@@ -2579,7 +2580,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>45596</v>
       </c>
@@ -2597,7 +2598,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>45626</v>
       </c>
@@ -2615,7 +2616,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>45657</v>
       </c>
@@ -2633,7 +2634,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>45688</v>
       </c>
@@ -2651,7 +2652,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>45716</v>
       </c>
@@ -2669,7 +2670,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>45747</v>
       </c>
@@ -2687,7 +2688,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>45777</v>
       </c>
@@ -2705,7 +2706,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>45808</v>
       </c>
@@ -2723,7 +2724,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>45838</v>
       </c>
@@ -2741,7 +2742,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>45869</v>
       </c>
@@ -2759,7 +2760,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>45900</v>
       </c>
@@ -2777,7 +2778,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>45930</v>
       </c>
@@ -2795,7 +2796,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>45961</v>
       </c>
@@ -2813,7 +2814,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>45991</v>
       </c>
@@ -2831,7 +2832,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>46022</v>
       </c>
@@ -2849,7 +2850,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>46053</v>
       </c>
@@ -2867,7 +2868,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>46081</v>
       </c>
@@ -2885,7 +2886,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>46112</v>
       </c>
@@ -2903,7 +2904,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>46142</v>
       </c>
@@ -2921,7 +2922,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>46173</v>
       </c>
@@ -2939,7 +2940,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>46203</v>
       </c>
@@ -2957,7 +2958,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>46234</v>
       </c>
@@ -2975,7 +2976,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>46265</v>
       </c>
@@ -2993,7 +2994,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>46295</v>
       </c>
@@ -3011,7 +3012,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>46326</v>
       </c>
@@ -3029,7 +3030,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>46356</v>
       </c>
@@ -3047,7 +3048,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>46387</v>
       </c>
@@ -3065,7 +3066,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>46418</v>
       </c>
@@ -3083,7 +3084,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>46446</v>
       </c>
@@ -3101,7 +3102,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>46477</v>
       </c>
@@ -3119,7 +3120,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>46507</v>
       </c>
@@ -3137,7 +3138,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>46538</v>
       </c>
@@ -3155,7 +3156,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>46568</v>
       </c>
@@ -3173,7 +3174,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>46599</v>
       </c>
@@ -3191,7 +3192,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>46630</v>
       </c>
@@ -3209,7 +3210,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>46660</v>
       </c>
@@ -3227,7 +3228,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>46691</v>
       </c>
@@ -3245,7 +3246,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>46721</v>
       </c>
@@ -3263,7 +3264,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>46752</v>
       </c>
@@ -3281,7 +3282,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>46783</v>
       </c>
@@ -3299,7 +3300,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>46812</v>
       </c>
@@ -3317,7 +3318,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>46843</v>
       </c>
@@ -3335,7 +3336,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>46873</v>
       </c>
@@ -3353,7 +3354,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>46904</v>
       </c>
@@ -3371,7 +3372,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>46934</v>
       </c>
@@ -3389,7 +3390,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>46965</v>
       </c>
@@ -3407,7 +3408,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>46996</v>
       </c>
@@ -3425,7 +3426,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>47026</v>
       </c>
@@ -3443,7 +3444,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>47057</v>
       </c>
@@ -3461,7 +3462,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>47087</v>
       </c>
@@ -3479,7 +3480,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>47118</v>
       </c>
@@ -3497,7 +3498,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>47149</v>
       </c>
@@ -3515,7 +3516,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3531,7 +3532,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3547,7 +3548,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3563,7 +3564,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3579,7 +3580,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3595,7 +3596,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3611,7 +3612,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3627,7 +3628,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3643,7 +3644,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3659,7 +3660,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3675,7 +3676,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3691,7 +3692,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3707,7 +3708,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3723,7 +3724,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3739,7 +3740,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3755,7 +3756,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3771,7 +3772,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3787,7 +3788,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3803,7 +3804,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3819,7 +3820,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3835,7 +3836,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3851,7 +3852,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3867,7 +3868,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3883,7 +3884,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3899,7 +3900,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -3915,7 +3916,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -3931,7 +3932,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -3947,7 +3948,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -3963,7 +3964,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -3979,7 +3980,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -3995,7 +3996,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4011,7 +4012,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4027,7 +4028,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4043,7 +4044,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4059,7 +4060,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4075,7 +4076,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4091,7 +4092,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4107,7 +4108,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4123,7 +4124,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="41"/>
       <c r="B146" s="15"/>
       <c r="C146" s="42"/>
@@ -4154,10 +4155,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4180,28 +4181,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -4214,7 +4215,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4243,7 +4244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -4263,17 +4264,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4294,7 +4295,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4321,7 +4322,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4347,7 +4348,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4373,7 +4374,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4399,7 +4400,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4425,7 +4426,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4451,7 +4452,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4477,7 +4478,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4523,7 +4524,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4563,7 +4564,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4605,7 +4606,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4626,7 +4627,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4668,7 +4669,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4710,7 +4711,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4731,7 +4732,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4773,7 +4774,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4836,7 +4837,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4857,7 +4858,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4878,7 +4879,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4899,7 +4900,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4941,7 +4942,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4962,7 +4963,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4992,7 +4993,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5001,7 +5002,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5010,7 +5011,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5019,7 +5020,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5028,7 +5029,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5037,7 +5038,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5055,7 +5056,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5064,7 +5065,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5073,7 +5074,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5082,7 +5083,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5091,7 +5092,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5100,7 +5101,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5109,7 +5110,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5118,7 +5119,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5127,7 +5128,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5145,7 +5146,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5154,7 +5155,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5163,7 +5164,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5172,7 +5173,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5181,7 +5182,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5190,7 +5191,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5199,7 +5200,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5208,7 +5209,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5217,7 +5218,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5235,7 +5236,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5244,7 +5245,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
